--- a/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2023-09-06.xlsx
+++ b/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2023-09-06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="28" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="33">
   <si>
     <t>Secteur</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Taxi beach</t>
   </si>
   <si>
-    <t>Taxi baot (popeye /saleccia)</t>
+    <t>Taxi boat (popeye/saleccia)</t>
   </si>
   <si>
     <t>juste à coté du chenal, mais houle</t>
@@ -106,16 +106,13 @@
     <t>Perlanera</t>
   </si>
   <si>
-    <t>Autres Sociétés</t>
+    <t>Autres sociétés</t>
   </si>
   <si>
     <t>Particuliers</t>
   </si>
   <si>
     <t>U Saleccia</t>
-  </si>
-  <si>
-    <t>Taxi baot (popeye/saleccia)</t>
   </si>
   <si>
     <t>arrivée de deux TB en même temps pour débarquer 1 personne, en même temps que la navette à vide</t>
@@ -3370,7 +3367,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3450,7 +3447,7 @@
     <row r="4" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8">
         <v>2</v>
@@ -3466,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3544,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3584,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3687,7 +3684,7 @@
     <row r="16" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A16" s="6"/>
       <c r="B16" s="9" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C16" s="8">
         <v>0</v>
@@ -3854,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3919,7 +3916,7 @@
     <row r="28" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A28" s="6"/>
       <c r="B28" s="9" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C28" s="8">
         <v>2</v>
@@ -4151,7 +4148,7 @@
     <row r="40" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C40" s="8">
         <v>0</v>
@@ -4382,7 +4379,7 @@
     <row r="52" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A52" s="6"/>
       <c r="B52" s="9" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C52" s="8">
         <v>0</v>
@@ -4612,7 +4609,7 @@
     <row r="64" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A64" s="6"/>
       <c r="B64" s="9" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C64" s="8">
         <v>0</v>
@@ -4842,7 +4839,7 @@
     <row r="76" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A76" s="6"/>
       <c r="B76" s="9" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C76" s="8">
         <v>0</v>
@@ -4952,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5074,7 +5071,7 @@
     <row r="88" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A88" s="6"/>
       <c r="B88" s="9" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C88" s="8">
         <v>0</v>
